--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -247,29 +247,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +278,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,8 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,9 +382,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,24 +398,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,72 +440,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -512,6 +512,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -524,7 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,48 +579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,16 +724,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,55 +742,55 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -799,22 +799,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,12 +823,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,16 +838,16 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,11 +929,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1189,16 +1184,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1704,7 +1700,9 @@
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>123</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>鲜于春来</t>
   </si>
   <si>
-    <t>添加分支7</t>
+    <t>创建分支</t>
   </si>
   <si>
     <t>陈凯成</t>
@@ -247,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -270,7 +270,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,8 +375,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,67 +399,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,38 +412,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -422,19 +422,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,163 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,21 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -660,6 +645,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,21 +676,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -709,13 +690,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,145 +736,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -953,11 +953,16 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{b2aa47b2-9f66-4eb8-bebd-aa32ae2808f8}" diskRevisions="1" revisionId="8" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2e434303-58bc-4d8b-9995-d0a93f34656d}" diskRevisions="1" revisionId="9" version="10">
   <header guid="{6e80a4c3-d8cb-4798-8a1c-f9856f74d7d2}" dateTime="2017-12-11T19:51:18" maxSheetId="2" userName="lanou3g" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1003,11 +1008,33 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{2e434303-58bc-4d8b-9995-d0a93f34656d}" dateTime="2017-12-12T08:59:45" maxSheetId="2" userName="0504" r:id="rId10" minRId="9">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="9" sId="1" numFmtId="45">
+    <oc r="F20" t="inlineStr">
+      <is>
+        <t>添加分支7</t>
+      </is>
+    </oc>
+    <nc r="F20" t="inlineStr">
+      <is>
+        <t>创建分支</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1120,7 +1147,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{2e434303-58bc-4d8b-9995-d0a93f34656d}" name="0504" id="-814379096" dateTime="2017-12-12T08:58:35"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1375,17 +1404,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -253,6 +253,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,50 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,7 +355,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +375,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -405,187 +405,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +640,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -655,15 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -675,36 +690,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +714,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,11 +983,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1243,16 +1238,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1827,7 +1823,9 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -211,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -405,6 +405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,6 +429,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,6 +453,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,6 +483,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,12 +501,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,12 +537,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -519,73 +567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1821,11 +1821,11 @@
       <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -250,7 +250,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,15 +317,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,14 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -304,83 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +408,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,55 +492,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,48 +565,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +643,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -662,37 +716,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,39 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -748,145 +748,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1968,14 +1968,14 @@
       <c r="D33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -214,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -250,6 +250,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -265,62 +326,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,6 +357,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -355,37 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -408,6 +408,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,66 +480,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -523,48 +565,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +643,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -654,15 +678,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +697,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -697,30 +732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -729,17 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -748,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -258,6 +258,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -281,6 +288,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -299,9 +344,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,58 +367,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,15 +395,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,7 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +441,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,25 +501,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,138 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,6 +751,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -787,17 +792,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -806,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,137 +812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,9 +989,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1062,11 +1053,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1322,16 +1308,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1410,12 +1397,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1442,12 +1429,12 @@
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1470,12 +1457,12 @@
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1496,12 +1483,12 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1522,12 +1509,12 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="9" t="s">
@@ -1546,12 +1533,12 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1570,12 +1557,12 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1592,12 +1579,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1614,12 +1601,12 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1638,12 +1625,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="14" t="s">
@@ -1662,12 +1649,12 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1686,12 +1673,12 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
@@ -1705,19 +1692,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F16" s="4">
         <v>11</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
@@ -1734,12 +1721,12 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
@@ -1756,12 +1743,12 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="14" t="s">
@@ -1780,12 +1767,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
@@ -1804,12 +1791,12 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
@@ -1822,18 +1809,18 @@
       <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
@@ -1850,12 +1837,12 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
@@ -1872,12 +1859,12 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="14" t="s">
@@ -1896,12 +1883,12 @@
       <c r="F24" s="11"/>
       <c r="G24" s="14"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
@@ -1914,18 +1901,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
@@ -1944,12 +1931,12 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
@@ -1966,12 +1953,12 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
@@ -1988,12 +1975,12 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="14" t="s">
@@ -2012,12 +1999,12 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
@@ -2038,12 +2025,12 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
@@ -2056,18 +2043,18 @@
       <c r="D31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
@@ -2086,12 +2073,12 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
@@ -2104,18 +2091,18 @@
       <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="14" t="s">
@@ -2136,12 +2123,12 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
@@ -2156,18 +2143,18 @@
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
@@ -2186,12 +2173,12 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
@@ -2204,7 +2191,7 @@
       <c r="D37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2212,12 +2199,12 @@
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
@@ -2235,13 +2222,13 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,12 +43,21 @@
     <t>完成</t>
   </si>
   <si>
+    <t>傻大姐爱神的箭撒谎的</t>
+  </si>
+  <si>
+    <t>看日期会不会?</t>
+  </si>
+  <si>
     <t>副班长</t>
   </si>
   <si>
     <t>李国易</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>袁营营</t>
   </si>
   <si>
@@ -79,9 +88,6 @@
     <t>未知</t>
   </si>
   <si>
-    <t>差一步，有点bug</t>
-  </si>
-  <si>
     <t>石水山</t>
   </si>
   <si>
@@ -155,9 +161,6 @@
   </si>
   <si>
     <t>存在小BUG</t>
-  </si>
-  <si>
-    <t>游戏完成 后面的还没有</t>
   </si>
   <si>
     <t>王韬</t>
@@ -179,9 +182,6 @@
 </t>
   </si>
   <si>
-    <t>在复习前几天的知识点</t>
-  </si>
-  <si>
     <t>严宇丛</t>
   </si>
   <si>
@@ -191,9 +191,6 @@
     <t>下课就撤,联系不上</t>
   </si>
   <si>
-    <t>还有点小问题正在解决</t>
-  </si>
-  <si>
     <t>刘鑫</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>数据存到xml完成</t>
+  </si>
+  <si>
+    <t>双人聊天多次输入失败</t>
   </si>
   <si>
     <t>陈宏港</t>
@@ -225,8 +225,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -258,13 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -288,44 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -344,9 +299,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,14 +322,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,14 +394,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,192 +423,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -652,6 +658,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -714,17 +757,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -755,6 +787,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,137 +818,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,6 +970,12 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,10 +988,19 @@
     <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1004,6 +1062,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1259,23 +1322,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="6" width="9.63333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="49.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="49.1666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.13333333333333" style="1"/>
     <col min="8" max="8" width="49.1666666666667" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
@@ -1344,16 +1408,14 @@
         <v>43081</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="5">
-        <v>43083</v>
-      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1380,12 +1442,12 @@
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1401,24 +1463,26 @@
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -1427,76 +1491,74 @@
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1506,119 +1568,113 @@
         <v>8</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1629,550 +1685,539 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F16" s="4">
+        <v>11</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="12" t="s">
-        <v>12</v>
+      <c r="E25" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="E34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>12</v>
+      <c r="E35" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
@@ -2180,26 +2225,26 @@
         <v>65</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -2210,6 +2255,7 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A35:A38"/>
+    <mergeCell ref="H6:H38"/>
     <mergeCell ref="A1:N3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -233,9 +233,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -389,6 +389,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -396,7 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -432,6 +432,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,12 +450,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,31 +510,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,42 +582,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,55 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,133 +784,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1274,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2095,7 +2095,9 @@
       <c r="H33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -258,44 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -319,66 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -395,12 +297,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,12 +423,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,24 +471,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,37 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,66 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,21 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,6 +678,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,30 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>卡在覆盖</t>
+  </si>
+  <si>
+    <t>完成1</t>
   </si>
   <si>
     <t>杜大文</t>
@@ -224,9 +227,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -258,6 +261,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -281,6 +291,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -299,9 +347,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,58 +370,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,15 +392,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,12 +426,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,54 +504,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -525,30 +588,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -568,42 +607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,6 +717,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -744,17 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1653,7 +1656,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="13"/>
@@ -1666,7 +1669,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1688,7 +1691,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1712,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>8</v>
@@ -1736,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1758,13 +1761,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
@@ -1782,10 +1785,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="12" t="s">
@@ -1804,7 +1807,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1828,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>8</v>
@@ -1852,7 +1855,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1874,13 +1877,13 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>8</v>
@@ -1898,7 +1901,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1920,10 +1923,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="12" t="s">
@@ -1944,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
@@ -1968,13 +1971,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>8</v>
@@ -1984,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -1996,13 +1999,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>8</v>
@@ -2021,13 +2024,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -2045,13 +2048,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2061,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -2075,13 +2078,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>8</v>
@@ -2091,7 +2094,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -2105,13 +2108,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>12</v>
@@ -2131,13 +2134,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>8</v>
@@ -2155,13 +2158,13 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>12</v>
@@ -2179,13 +2182,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>卡在覆盖</t>
-  </si>
-  <si>
-    <t>完成1</t>
   </si>
   <si>
     <t>杜大文</t>
@@ -226,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -262,92 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,14 +289,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,10 +324,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,6 +393,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -426,6 +423,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,37 +471,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,126 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +658,69 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -680,37 +740,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,39 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,7 +1653,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="13"/>
@@ -1669,7 +1666,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1691,7 +1688,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1715,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>8</v>
@@ -1739,7 +1736,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1761,13 +1758,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
@@ -1785,10 +1782,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="12" t="s">
@@ -1807,7 +1804,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1831,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>8</v>
@@ -1855,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1877,13 +1874,13 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>8</v>
@@ -1901,7 +1898,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1923,10 +1920,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="12" t="s">
@@ -1947,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
@@ -1971,13 +1968,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>8</v>
@@ -1987,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -1999,13 +1996,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>8</v>
@@ -2024,13 +2021,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -2048,13 +2045,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2064,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -2078,13 +2075,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>8</v>
@@ -2094,7 +2091,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -2108,13 +2105,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>12</v>
@@ -2134,13 +2131,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>8</v>
@@ -2158,13 +2155,13 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>12</v>
@@ -2182,13 +2179,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -88,6 +88,9 @@
     <t>几乎没有进度</t>
   </si>
   <si>
+    <t>有进步</t>
+  </si>
+  <si>
     <t>刘鹏</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>董加丰</t>
+  </si>
+  <si>
+    <t>游戏还有一点</t>
   </si>
   <si>
     <t>李晓楠</t>
@@ -204,6 +210,9 @@
   </si>
   <si>
     <t>数据存到xml初步完成</t>
+  </si>
+  <si>
+    <t>提交有异常</t>
   </si>
   <si>
     <t>沈世伟</t>
@@ -225,8 +234,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,46 +268,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,8 +297,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,9 +342,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,14 +366,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -373,17 +398,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,14 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,127 +432,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,42 +613,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +667,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -683,21 +731,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -714,24 +747,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,17 +764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,137 +784,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,9 +952,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1268,17 +1274,17 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="6" width="9.63333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.13333333333333" style="1"/>
-    <col min="8" max="8" width="49.1666666666667" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
+    <col min="7" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.13333333333333" style="1"/>
+    <col min="10" max="10" width="49.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1348,12 +1354,14 @@
         <v>43083</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="I4" s="5">
+        <v>43084</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1380,12 +1388,16 @@
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1406,12 +1418,14 @@
         <v>8</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1432,12 +1446,14 @@
         <v>8</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1460,12 +1476,14 @@
         <v>8</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="7" t="s">
@@ -1482,14 +1500,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1510,12 +1530,12 @@
         <v>8</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1530,14 +1550,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1558,12 +1580,14 @@
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="I12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1580,21 +1604,25 @@
         <v>8</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>8</v>
@@ -1604,21 +1632,25 @@
         <v>8</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="I14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1630,23 +1662,23 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>12</v>
@@ -1656,17 +1688,19 @@
         <v>8</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="I16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1678,17 +1712,17 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1698,21 +1732,25 @@
         <v>8</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="I18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>8</v>
@@ -1722,21 +1760,25 @@
         <v>8</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="I19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1748,23 +1790,23 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
@@ -1772,20 +1814,20 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="12" t="s">
@@ -1794,17 +1836,17 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1814,21 +1856,27 @@
         <v>8</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>8</v>
@@ -1838,21 +1886,25 @@
         <v>8</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="I24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1864,23 +1916,23 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>8</v>
@@ -1888,17 +1940,17 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1910,20 +1962,20 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="12" t="s">
@@ -1932,19 +1984,19 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
@@ -1956,25 +2008,25 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>8</v>
@@ -1984,25 +2036,25 @@
         <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>8</v>
@@ -2011,23 +2063,23 @@
         <v>8</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -2035,23 +2087,23 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2061,27 +2113,29 @@
         <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>8</v>
@@ -2091,27 +2145,29 @@
         <v>8</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>12</v>
@@ -2121,47 +2177,51 @@
         <v>8</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
+      <c r="I35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="H36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>12</v>
@@ -2169,23 +2229,25 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="I37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>8</v>
@@ -2193,19 +2255,20 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A20:A23"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -253,29 +253,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,25 +319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +355,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -423,6 +423,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,145 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,45 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -714,20 +675,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +705,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1783,7 +1783,9 @@
         <v>8</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -1889,7 +1891,9 @@
         <v>8</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -253,6 +253,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,8 +342,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,46 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -423,6 +423,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,6 +501,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -513,12 +561,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -538,48 +580,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,9 +714,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,56 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,145 +763,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1783,9 +1783,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -1891,9 +1889,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="9"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,45 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,14 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -326,17 +280,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,9 +302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,21 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,6 +338,69 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,13 +423,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,55 +573,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,97 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,17 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +672,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,32 +706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,11 +741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1967,11 +1967,17 @@
         <v>8</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="16695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,14 +259,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,65 +321,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,6 +365,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,187 +423,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,15 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -755,6 +746,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,145 +763,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,6 +1001,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1256,17 +1261,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1785,9 +1789,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -1893,9 +1895,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="9"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,7 +259,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,7 +320,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,11 +342,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,82 +396,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -423,12 +423,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,19 +525,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,139 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,11 +658,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,15 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -702,36 +723,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +746,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1705,7 +1705,9 @@
         <v>8</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>卡在覆盖</t>
+  </si>
+  <si>
+    <t>完1成</t>
   </si>
   <si>
     <t>杜大文</t>
@@ -259,7 +262,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,36 +331,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -339,6 +342,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,30 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -423,25 +426,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,49 +510,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,19 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,36 +594,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -598,12 +607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +715,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -735,26 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,145 +766,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1706,7 +1709,7 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="13"/>
@@ -1715,7 +1718,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1741,7 +1744,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1769,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>8</v>
@@ -1797,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1821,13 +1824,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
@@ -1845,7 +1848,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1859,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1875,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>8</v>
@@ -1903,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
@@ -1927,13 +1930,13 @@
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>8</v>
@@ -1955,7 +1958,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -1979,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>8</v>
@@ -2007,13 +2010,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>8</v>
@@ -2023,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>8</v>
@@ -2037,13 +2040,13 @@
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>8</v>
@@ -2064,13 +2067,13 @@
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>8</v>
@@ -2088,13 +2091,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
@@ -2104,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>8</v>
@@ -2120,13 +2123,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>8</v>
@@ -2136,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>8</v>
@@ -2154,13 +2157,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2182,13 +2185,13 @@
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>8</v>
@@ -2196,7 +2199,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>8</v>
@@ -2212,13 +2215,13 @@
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>12</v>
@@ -2240,13 +2243,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -224,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,14 +259,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,73 +328,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -401,6 +357,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,6 +423,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,174 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,30 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -755,6 +731,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1949,7 +1949,9 @@
         <v>8</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L25" s="4"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,53 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,15 +287,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,9 +355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +380,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,17 +388,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,14 +401,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,6 +423,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,18 +555,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,108 +597,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -574,36 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,17 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,15 +672,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,21 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +708,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -746,15 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,6 +1001,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1256,17 +1261,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1967,11 +1971,17 @@
         <v>8</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -260,13 +260,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,23 +326,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,19 +364,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,6 +386,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,6 +423,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,168 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,30 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -736,6 +712,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1705,7 +1705,9 @@
         <v>8</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -224,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,37 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +305,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -357,50 +401,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,25 +423,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,60 +597,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,96 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +682,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -731,30 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1949,9 +1949,7 @@
         <v>8</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -260,6 +260,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,24 +333,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,10 +370,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,21 +401,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,6 +423,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,6 +495,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,84 +585,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -580,30 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +682,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -712,30 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -763,145 +763,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1705,9 +1705,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13665"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,6 +259,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,24 +342,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,20 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -334,23 +366,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,40 +387,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,13 +423,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,169 +579,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,20 +697,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,43 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,145 +763,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,6 +1001,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1256,17 +1261,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1921,7 +1925,9 @@
         <v>8</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -260,13 +260,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,22 +327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +343,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,21 +395,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,6 +423,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,168 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,15 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -702,6 +693,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,26 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1705,7 +1705,9 @@
         <v>8</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,67 +259,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -342,9 +281,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +312,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -366,15 +334,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,16 +363,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,187 +423,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,30 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,28 +673,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,11 +715,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,11 +1001,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1261,16 +1256,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1925,9 +1921,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13665"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,6 +259,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,24 +342,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,20 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -334,23 +366,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,45 +401,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -423,157 +423,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,25 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,20 +697,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,43 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,6 +1001,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1256,17 +1261,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1921,7 +1925,9 @@
         <v>8</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -258,24 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,8 +288,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,17 +328,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,24 +366,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,6 +423,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,60 +501,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -525,30 +585,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,49 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,15 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -693,36 +708,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +732,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,7 +775,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,124 +784,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1949,7 +1949,9 @@
         <v>8</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L25" s="4"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>卡在覆盖</t>
+  </si>
+  <si>
+    <t>完</t>
   </si>
   <si>
     <t>杜大文</t>
@@ -223,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1706,7 +1709,7 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="13"/>
@@ -1715,7 +1718,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1741,7 +1744,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1769,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>8</v>
@@ -1799,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1823,13 +1826,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
@@ -1847,7 +1850,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1861,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1877,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>8</v>
@@ -1907,7 +1910,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
@@ -1931,13 +1934,13 @@
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>8</v>
@@ -1959,7 +1962,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -1983,7 +1986,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>8</v>
@@ -2011,13 +2014,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>8</v>
@@ -2027,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>8</v>
@@ -2041,13 +2044,13 @@
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>8</v>
@@ -2068,13 +2071,13 @@
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>8</v>
@@ -2092,13 +2095,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
@@ -2108,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>8</v>
@@ -2124,13 +2127,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>8</v>
@@ -2140,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>8</v>
@@ -2158,13 +2161,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2186,13 +2189,13 @@
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>8</v>
@@ -2200,7 +2203,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>8</v>
@@ -2214,13 +2217,13 @@
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>12</v>
@@ -2242,13 +2245,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13665"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,6 +259,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,24 +342,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,20 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -334,23 +366,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,40 +387,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,13 +423,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,169 +579,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,20 +697,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,43 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,145 +763,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,6 +1001,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1256,17 +1261,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1921,7 +1925,9 @@
         <v>8</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>卡在覆盖</t>
-  </si>
-  <si>
-    <t>完</t>
   </si>
   <si>
     <t>杜大文</t>
@@ -226,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -268,6 +265,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -299,31 +319,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,46 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -426,6 +423,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,25 +471,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,12 +561,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -541,48 +580,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,50 +683,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -758,6 +711,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1709,7 +1706,7 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="13"/>
@@ -1718,7 +1715,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1744,7 +1741,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1772,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>8</v>
@@ -1802,7 +1799,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1826,13 +1823,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
@@ -1850,7 +1847,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1864,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1880,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>8</v>
@@ -1910,7 +1907,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
@@ -1934,13 +1931,13 @@
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>8</v>
@@ -1962,7 +1959,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -1986,7 +1983,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>8</v>
@@ -2014,13 +2011,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>8</v>
@@ -2030,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>8</v>
@@ -2044,13 +2041,13 @@
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>8</v>
@@ -2071,13 +2068,13 @@
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>8</v>
@@ -2095,13 +2092,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
@@ -2111,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>8</v>
@@ -2127,13 +2124,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>8</v>
@@ -2143,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>8</v>
@@ -2161,13 +2158,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2189,13 +2186,13 @@
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>8</v>
@@ -2203,7 +2200,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>8</v>
@@ -2217,13 +2214,13 @@
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>12</v>
@@ -2245,13 +2242,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -224,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,6 +259,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -268,6 +276,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,9 +330,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,7 +353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,44 +375,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,17 +388,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,31 +423,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,78 +549,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,31 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,11 +658,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +708,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,47 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1979,7 +1979,9 @@
         <v>8</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -224,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,14 +259,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -276,45 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,9 +283,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,7 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +320,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,6 +335,44 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,15 +386,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,97 +423,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,85 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,41 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,17 +678,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +714,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1979,9 +1979,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,67 +259,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -342,9 +281,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +312,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -366,15 +334,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,16 +363,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,187 +423,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,30 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,28 +673,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,11 +715,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,11 +1001,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1261,16 +1256,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1925,9 +1921,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -255,52 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -316,21 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -339,40 +278,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,7 +303,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,12 +420,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,18 +582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,145 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,41 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +675,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +712,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -743,15 +752,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,133 +772,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,6 +998,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1253,17 +1258,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1702,9 +1706,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -205,9 +205,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -247,29 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -301,6 +278,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -321,30 +321,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,6 +353,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -405,6 +405,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,30 +453,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,6 +483,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,72 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,26 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -737,6 +717,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2224,7 +2224,9 @@
         <v>8</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="N33" s="4"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -362,8 +362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,9 +377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,6 +411,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,13 +441,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,151 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,16 +757,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,10 +778,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,28 +802,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -832,58 +832,58 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,11 +980,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1240,16 +1235,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1567,7 +1563,9 @@
         <v>8</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="N11" s="4"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -206,9 +206,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -240,13 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -270,44 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -326,9 +281,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,14 +304,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,14 +370,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,6 +405,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,37 +465,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,126 +586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,17 +696,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -737,6 +726,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1865,7 +1865,9 @@
         <v>8</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="N21" s="4"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="27060" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>鲜于春来</t>
+  </si>
+  <si>
+    <t>敲课堂代码</t>
   </si>
   <si>
     <t>陈凯成</t>
@@ -205,10 +208,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -241,16 +244,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,8 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -274,14 +294,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,11 +311,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,41 +358,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,14 +381,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,13 +408,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,37 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,127 +570,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,17 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +663,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +699,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -689,31 +718,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,17 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,8 +1251,8 @@
   <sheetPr/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1261,7 +1264,7 @@
     <col min="16" max="16" width="49.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:16">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1284,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="27" spans="1:16">
+    <row r="2" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1299,7 +1302,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" ht="27" spans="1:16">
+    <row r="3" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1862,19 +1865,23 @@
         <v>8</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:16">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>8</v>
@@ -1898,7 +1905,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:16">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1912,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1934,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>8</v>
@@ -1968,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1998,13 +2005,13 @@
     <row r="24" ht="25" customHeight="1" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>8</v>
@@ -2032,7 +2039,7 @@
     <row r="25" ht="25" customHeight="1" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -2066,7 +2073,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>8</v>
@@ -2100,13 +2107,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>8</v>
@@ -2116,7 +2123,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>8</v>
@@ -2136,13 +2143,13 @@
     <row r="28" ht="25" customHeight="1" spans="1:16">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>8</v>
@@ -2169,13 +2176,13 @@
     <row r="29" ht="25" customHeight="1" spans="1:16">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
@@ -2185,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>8</v>
@@ -2207,13 +2214,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>8</v>
@@ -2223,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>8</v>
@@ -2245,13 +2252,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
@@ -2279,13 +2286,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:16">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -2293,7 +2300,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>8</v>
@@ -2313,13 +2320,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:16">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2345,13 +2352,13 @@
     <row r="34" ht="25" customHeight="1" spans="1:16">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>没有理清解题思路</t>
+  </si>
+  <si>
+    <t>只完成了作业2和增</t>
   </si>
   <si>
     <t>董加丰</t>
@@ -229,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -266,7 +269,65 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,30 +343,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,41 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -394,19 +396,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -429,13 +432,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,36 +510,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,12 +522,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,19 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +582,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,73 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,30 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -703,37 +682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,6 +715,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -769,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,19 +784,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,112 +805,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1273,7 +1276,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1932,13 +1935,17 @@
         <v>8</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:16">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1952,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1970,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:16">
@@ -1978,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>8</v>
@@ -2008,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:16">
@@ -2016,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -2046,13 +2053,13 @@
     <row r="24" ht="25" customHeight="1" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>8</v>
@@ -2078,13 +2085,13 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -2120,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>8</v>
@@ -2156,13 +2163,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>8</v>
@@ -2172,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>8</v>
@@ -2194,13 +2201,13 @@
     <row r="28" ht="25" customHeight="1" spans="1:16">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>8</v>
@@ -2227,13 +2234,13 @@
     <row r="29" ht="25" customHeight="1" spans="1:16">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
@@ -2243,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>8</v>
@@ -2261,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:16">
@@ -2269,13 +2276,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>8</v>
@@ -2285,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>8</v>
@@ -2307,13 +2314,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
@@ -2339,19 +2346,19 @@
         <v>12</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:16">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -2359,7 +2366,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>8</v>
@@ -2377,19 +2384,19 @@
         <v>12</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:16">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2415,13 +2422,13 @@
     <row r="34" ht="25" customHeight="1" spans="1:16">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>没有理清解题思路</t>
-  </si>
-  <si>
-    <t>只完成了作业2和增</t>
   </si>
   <si>
     <t>董加丰</t>
@@ -232,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -269,65 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +282,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +335,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -396,16 +394,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,13 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,115 +459,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,43 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,6 +664,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,17 +703,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,50 +756,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -772,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,19 +781,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,112 +802,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1276,7 +1273,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1935,17 +1932,13 @@
         <v>8</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:16">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1959,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1977,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:16">
@@ -1985,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>8</v>
@@ -2015,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:16">
@@ -2023,7 +2016,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -2053,13 +2046,13 @@
     <row r="24" ht="25" customHeight="1" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>8</v>
@@ -2085,13 +2078,13 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -2127,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>8</v>
@@ -2163,13 +2156,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>8</v>
@@ -2179,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>8</v>
@@ -2201,13 +2194,13 @@
     <row r="28" ht="25" customHeight="1" spans="1:16">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>8</v>
@@ -2234,13 +2227,13 @@
     <row r="29" ht="25" customHeight="1" spans="1:16">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
@@ -2250,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>8</v>
@@ -2268,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:16">
@@ -2276,13 +2269,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>8</v>
@@ -2292,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>8</v>
@@ -2314,13 +2307,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
@@ -2346,19 +2339,19 @@
         <v>12</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:16">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -2366,7 +2359,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>8</v>
@@ -2384,19 +2377,19 @@
         <v>12</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:16">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2422,13 +2415,13 @@
     <row r="34" ht="25" customHeight="1" spans="1:16">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>没有理清解题思路</t>
+  </si>
+  <si>
+    <t>只完成作业2</t>
   </si>
   <si>
     <t>董加丰</t>
@@ -264,48 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,24 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +312,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -370,17 +335,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,20 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -429,25 +432,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,157 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,16 +667,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -689,21 +692,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -714,6 +702,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,21 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -769,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +784,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1272,8 +1275,8 @@
   <sheetPr/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1932,13 +1935,17 @@
         <v>8</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:16">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1952,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1970,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:16">
@@ -1978,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>8</v>
@@ -2008,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:16">
@@ -2016,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -2046,13 +2053,13 @@
     <row r="24" ht="25" customHeight="1" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>8</v>
@@ -2078,13 +2085,13 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -2120,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>8</v>
@@ -2156,13 +2163,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>8</v>
@@ -2172,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>8</v>
@@ -2194,13 +2201,13 @@
     <row r="28" ht="25" customHeight="1" spans="1:16">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>8</v>
@@ -2227,13 +2234,13 @@
     <row r="29" ht="25" customHeight="1" spans="1:16">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
@@ -2243,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>8</v>
@@ -2261,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:16">
@@ -2269,13 +2276,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>8</v>
@@ -2285,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>8</v>
@@ -2307,13 +2314,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
@@ -2339,19 +2346,19 @@
         <v>12</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:16">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -2359,7 +2366,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>8</v>
@@ -2377,19 +2384,19 @@
         <v>12</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:16">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2415,13 +2422,13 @@
     <row r="34" ht="25" customHeight="1" spans="1:16">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>8</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9552"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -76,6 +76,9 @@
     <t>蔡林</t>
   </si>
   <si>
+    <t>未完成</t>
+  </si>
+  <si>
     <t>许寒</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>赖瑞</t>
   </si>
   <si>
+    <t>条件查询还没完成</t>
+  </si>
+  <si>
     <t>郑奎</t>
   </si>
   <si>
@@ -97,13 +103,10 @@
     <t>董加丰</t>
   </si>
   <si>
-    <t>未完成</t>
-  </si>
-  <si>
-    <t>增删改查写了,工具包未完成</t>
-  </si>
-  <si>
     <t>李晓楠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成 </t>
   </si>
   <si>
     <t>陈朝雄</t>
@@ -147,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -183,14 +186,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +231,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -219,19 +246,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,14 +301,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,68 +328,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -347,6 +350,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,25 +368,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +440,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,127 +506,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,25 +610,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,21 +635,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +658,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -922,6 +925,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1177,25 +1185,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.62962962962963" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6296296296296" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.63333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6333333333333" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.63333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1459,7 +1466,9 @@
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1475,7 +1484,7 @@
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1493,7 +1502,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1511,10 +1520,14 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1531,9 +1544,11 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1551,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1569,7 +1584,7 @@
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1587,14 +1602,12 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="12"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
@@ -1613,7 +1626,9 @@
       <c r="B22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="9"/>
@@ -1631,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1649,7 +1664,7 @@
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1667,7 +1682,7 @@
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1687,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -1709,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1727,7 +1742,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
@@ -1746,7 +1761,7 @@
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>15</v>
@@ -1768,10 +1783,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="9"/>
@@ -1790,7 +1805,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
@@ -1810,7 +1825,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1828,7 +1843,7 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1846,7 +1861,7 @@
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -194,8 +194,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,28 +277,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -240,14 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,10 +300,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,14 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -292,51 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -359,73 +359,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,109 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +606,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -644,17 +659,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,24 +685,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -702,6 +693,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -710,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -954,6 +954,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1209,17 +1214,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1531,7 +1535,9 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1684,7 +1690,9 @@
         <v>10</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="14"/>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
@@ -1730,7 +1738,9 @@
         <v>10</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>冯文</t>
-  </si>
-  <si>
-    <t>修改有问题</t>
   </si>
   <si>
     <t>沈世伟</t>
@@ -153,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -195,6 +192,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -203,14 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -220,7 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +254,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +291,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,72 +322,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -401,6 +398,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,18 +518,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,96 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,26 +600,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,11 +641,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,25 +658,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,130 +705,130 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,8 +1189,8 @@
   <sheetPr/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1857,10 +1854,10 @@
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="12"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1874,7 +1871,7 @@
     <row r="33" ht="24.95" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
@@ -1894,13 +1891,13 @@
     <row r="34" ht="42" customHeight="1" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -195,7 +195,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,82 +311,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,17 +324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,19 +359,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,163 +497,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,17 +605,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,17 +661,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -663,42 +680,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1795,7 +1795,9 @@
         <v>10</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>冯文</t>
+  </si>
+  <si>
+    <t>修改有问题</t>
   </si>
   <si>
     <t>沈世伟</t>
@@ -150,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -192,6 +195,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -200,6 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -215,6 +234,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -222,24 +256,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,14 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -275,59 +325,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -398,6 +401,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,18 +491,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,42 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,26 +603,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,9 +644,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,27 +663,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,130 +708,130 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1854,10 +1857,10 @@
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="D32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1871,7 +1874,7 @@
     <row r="33" ht="24.95" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
@@ -1891,13 +1894,13 @@
     <row r="34" ht="42" customHeight="1" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -191,6 +191,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -199,6 +221,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -207,13 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -223,117 +328,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -356,31 +356,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,151 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,26 +617,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +658,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -667,35 +685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,133 +719,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1511,7 +1511,9 @@
         <v>10</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3"/>
@@ -1845,7 +1847,9 @@
         <v>10</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>杨潇</t>
+  </si>
+  <si>
+    <t>天气解析没做出来</t>
   </si>
   <si>
     <t>范文杰</t>
@@ -168,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -204,7 +207,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +269,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,10 +291,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,15 +306,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,84 +344,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -374,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,11 +623,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,9 +679,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,49 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,133 +740,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1669,7 +1672,9 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
@@ -2029,9 +2034,13 @@
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="K26" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="M26" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -2042,7 +2051,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
@@ -2071,7 +2080,7 @@
     <row r="28" ht="24.95" customHeight="1" spans="1:17">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
@@ -2100,7 +2109,7 @@
     <row r="29" ht="24.95" customHeight="1" spans="1:17">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
@@ -2123,7 +2132,7 @@
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
@@ -2135,7 +2144,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>22</v>
@@ -2154,11 +2163,11 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -2170,7 +2179,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>10</v>
@@ -2189,11 +2198,11 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -2203,7 +2212,7 @@
     <row r="32" ht="24.95" customHeight="1" spans="1:17">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
@@ -2232,7 +2241,7 @@
     <row r="33" ht="24.95" customHeight="1" spans="1:17">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>10</v>
@@ -2261,13 +2270,13 @@
     <row r="34" ht="42" customHeight="1" spans="1:17">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>10</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -168,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,16 +210,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,32 +250,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,7 +280,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -296,7 +288,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,31 +324,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,48 +392,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,31 +494,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,48 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,11 +620,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,41 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,8 +712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,97 +737,97 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,10 +836,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,22 +848,22 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,8 +1251,8 @@
   <sheetPr/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1702,7 +1702,9 @@
       <c r="J15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
@@ -1942,7 +1944,9 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
@@ -2062,7 +2066,9 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -112,6 +112,9 @@
     <t>陈凯成</t>
   </si>
   <si>
+    <t>完成了作业1，作业2未完成</t>
+  </si>
+  <si>
     <t>董加丰</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t>徐超</t>
+  </si>
+  <si>
+    <t>作业1完成，作业2未完成</t>
   </si>
   <si>
     <t>胡凯</t>
@@ -171,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -274,6 +280,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -287,6 +315,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,36 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +389,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,115 +425,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,48 +564,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +654,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -679,6 +700,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -696,30 +726,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,11 +996,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1250,16 +1251,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1868,9 +1870,13 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
@@ -1879,7 +1885,7 @@
     <row r="21" ht="24.95" customHeight="1" spans="1:17">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>10</v>
@@ -1910,7 +1916,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>10</v>
@@ -1941,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
@@ -1972,7 +1978,7 @@
     <row r="24" ht="24.95" customHeight="1" spans="1:17">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>10</v>
@@ -1990,9 +1996,13 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="M24" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
@@ -2001,7 +2011,7 @@
     <row r="25" ht="24.95" customHeight="1" spans="1:17">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>10</v>
@@ -2019,9 +2029,13 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
+      <c r="M25" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="N25" s="21"/>
       <c r="O25" s="20"/>
       <c r="P25" s="21"/>
@@ -2032,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>10</v>
@@ -2063,7 +2077,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
@@ -2094,7 +2108,7 @@
     <row r="28" ht="24.95" customHeight="1" spans="1:17">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
@@ -2123,7 +2137,7 @@
     <row r="29" ht="24.95" customHeight="1" spans="1:17">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
@@ -2146,7 +2160,7 @@
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
@@ -2158,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>11</v>
@@ -2177,11 +2191,11 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -2193,7 +2207,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>10</v>
@@ -2212,11 +2226,11 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -2226,7 +2240,7 @@
     <row r="32" ht="24.95" customHeight="1" spans="1:17">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>11</v>
@@ -2257,7 +2271,7 @@
     <row r="33" ht="24.95" customHeight="1" spans="1:17">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>10</v>
@@ -2288,13 +2302,13 @@
     <row r="34" ht="42" customHeight="1" spans="1:17">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>10</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -109,7 +109,7 @@
     <t>郑奎</t>
   </si>
   <si>
-    <t>天气解析</t>
+    <t>天气解析有问题</t>
   </si>
   <si>
     <t>鲜于春来</t>
@@ -195,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -237,6 +237,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -268,29 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -311,6 +311,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,30 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -401,6 +401,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,30 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,6 +479,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,24 +558,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,6 +701,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -724,26 +744,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -752,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,133 +764,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -100,10 +100,13 @@
     <t>杜大文</t>
   </si>
   <si>
-    <t>天气解析出错</t>
+    <t>json数据传递有问题,500</t>
   </si>
   <si>
     <t>赖瑞</t>
+  </si>
+  <si>
+    <t>天气api使用</t>
   </si>
   <si>
     <t>郑奎</t>
@@ -175,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -216,9 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,26 +249,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,6 +272,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -294,37 +288,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +334,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +383,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,174 +564,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,11 +631,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +663,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -676,26 +692,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,9 +718,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,17 +931,17 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1255,23 +1258,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="7" width="9.63333333333333" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.63333333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="50.625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="9.63333333333333" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.63333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="50.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.63333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1291,8 +1294,9 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1310,8 +1314,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1329,8 +1334,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" ht="24.95" customHeight="1" spans="1:17">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" ht="24.95" customHeight="1" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1349,17 +1355,20 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="16">
+      <c r="K4" s="6">
         <v>43096</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" ht="24.95" customHeight="1" spans="1:17">
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="16">
+        <v>43097</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" ht="24.95" customHeight="1" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1390,21 +1399,28 @@
       <c r="J5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-    </row>
-    <row r="6" ht="24.95" customHeight="1" spans="1:17">
+      <c r="N5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" ht="24.95" customHeight="1" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1427,19 +1443,22 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:17">
+      <c r="M6" s="4"/>
+      <c r="N6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:18">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1462,17 +1481,18 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-    </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:18">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1495,19 +1515,20 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="20" t="s">
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-    </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:17">
+      <c r="M8" s="4"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" ht="24.95" customHeight="1" spans="1:18">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1533,12 +1554,13 @@
       <c r="K9" s="12"/>
       <c r="L9" s="9"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" ht="24.95" customHeight="1" spans="1:17">
+      <c r="N9" s="12"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:18">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1561,19 +1583,18 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:18">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -1594,19 +1615,22 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="20" t="s">
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:17">
+      <c r="N11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:18">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -1627,17 +1651,18 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" ht="24.95" customHeight="1" spans="1:18">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1665,12 +1690,17 @@
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="N13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="24.95" customHeight="1" spans="1:17">
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" ht="24.95" customHeight="1" spans="1:18">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1695,15 +1725,18 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" ht="24.95" customHeight="1" spans="1:18">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>25</v>
@@ -1726,15 +1759,16 @@
       <c r="J15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" ht="24.95" customHeight="1" spans="1:18">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>27</v>
@@ -1755,19 +1789,20 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20" t="s">
+      <c r="O16" s="18"/>
+      <c r="P16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-    </row>
-    <row r="17" ht="24.95" customHeight="1" spans="1:17">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" ht="24.95" customHeight="1" spans="1:18">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1788,20 +1823,27 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-    </row>
-    <row r="18" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" ht="24.95" customHeight="1" spans="1:18">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>10</v>
@@ -1826,13 +1868,14 @@
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="24.95" customHeight="1" spans="1:17">
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" ht="24.95" customHeight="1" spans="1:18">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -1850,20 +1893,21 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-    </row>
-    <row r="20" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" ht="24.95" customHeight="1" spans="1:18">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
@@ -1881,18 +1925,19 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-    </row>
-    <row r="21" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" ht="24.95" customHeight="1" spans="1:18">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>10</v>
@@ -1910,20 +1955,21 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="22" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K21" s="4"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" ht="24.95" customHeight="1" spans="1:18">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>10</v>
@@ -1944,17 +1990,18 @@
       <c r="K22" s="13"/>
       <c r="L22" s="10"/>
       <c r="M22" s="13"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="24.95" customHeight="1" spans="1:17">
+      <c r="N22" s="13"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" ht="24.95" customHeight="1" spans="1:18">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
@@ -1972,20 +2019,21 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-    </row>
-    <row r="24" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" ht="24.95" customHeight="1" spans="1:18">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>10</v>
@@ -2003,18 +2051,19 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-    </row>
-    <row r="25" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" ht="24.95" customHeight="1" spans="1:18">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>10</v>
@@ -2032,20 +2081,21 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="20"/>
-    </row>
-    <row r="26" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="18"/>
+    </row>
+    <row r="26" ht="24.95" customHeight="1" spans="1:18">
       <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>10</v>
@@ -2070,13 +2120,14 @@
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="24.95" customHeight="1" spans="1:17">
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" ht="24.95" customHeight="1" spans="1:18">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
@@ -2094,20 +2145,21 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-    </row>
-    <row r="28" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+    </row>
+    <row r="28" ht="24.95" customHeight="1" spans="1:18">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
@@ -2125,18 +2177,19 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="20"/>
-    </row>
-    <row r="29" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" ht="24.95" customHeight="1" spans="1:18">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
@@ -2154,24 +2207,27 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-    </row>
-    <row r="30" ht="24.95" customHeight="1" spans="1:17">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+    </row>
+    <row r="30" ht="24.95" customHeight="1" spans="1:18">
       <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>11</v>
@@ -2190,23 +2246,24 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="24.95" customHeight="1" spans="1:17">
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" ht="24.95" customHeight="1" spans="1:18">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>10</v>
@@ -2224,22 +2281,23 @@
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20" t="s">
+      <c r="K31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-    </row>
-    <row r="32" ht="24.95" customHeight="1" spans="1:17">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" ht="24.95" customHeight="1" spans="1:18">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>11</v>
@@ -2257,20 +2315,23 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-    </row>
-    <row r="33" ht="24.95" customHeight="1" spans="1:17">
+      <c r="K32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" ht="24.95" customHeight="1" spans="1:18">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>10</v>
@@ -2288,26 +2349,27 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-    </row>
-    <row r="34" ht="42" customHeight="1" spans="1:17">
+      <c r="K33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:18">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>10</v>
@@ -2321,13 +2383,14 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2336,15 +2399,15 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A1:Q3"/>
+    <mergeCell ref="A1:R3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27765" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -211,6 +211,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,31 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,9 +346,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,13 +380,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,48 +434,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,6 +494,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,7 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,78 +561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +626,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -637,15 +661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,21 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -731,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1257,8 +1257,8 @@
   <sheetPr/>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1823,7 +1823,9 @@
       <c r="M17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="18"/>
+      <c r="N17" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -257,21 +257,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -283,6 +268,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,45 +332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,17 +356,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +376,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -419,19 +419,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,54 +467,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -509,13 +533,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,78 +600,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,16 +705,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,16 +740,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,133 +782,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,6 +1029,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1284,17 +1289,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2177,8 +2181,12 @@
       <c r="P23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
+      <c r="Q23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="S23" s="18"/>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:19">
@@ -2530,8 +2538,12 @@
       </c>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
+      <c r="Q32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="S32" s="18"/>
     </row>
     <row r="33" ht="24.95" customHeight="1" spans="1:19">

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>熊志祥</t>
+  </si>
+  <si>
+    <t>显示图书详情信息有问题</t>
   </si>
   <si>
     <t>刘鹏</t>
@@ -228,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -264,6 +267,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -278,11 +311,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,15 +366,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,48 +389,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,38 +404,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,187 +437,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +679,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -700,41 +718,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,19 +747,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,6 +1055,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1307,17 +1315,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1705,16 +1712,20 @@
         <v>9</v>
       </c>
       <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="O12" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:17">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
@@ -1747,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
@@ -1767,7 +1778,7 @@
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
@@ -1776,14 +1787,14 @@
     <row r="15" ht="24.95" customHeight="1" spans="1:17">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1793,7 +1804,7 @@
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>10</v>
@@ -1802,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
@@ -1811,7 +1822,7 @@
     <row r="16" ht="24.95" customHeight="1" spans="1:17">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
@@ -1826,7 +1837,7 @@
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>9</v>
@@ -1842,7 +1853,7 @@
     <row r="17" ht="24.95" customHeight="1" spans="1:17">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
@@ -1856,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>9</v>
@@ -1868,7 +1879,7 @@
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
@@ -1879,7 +1890,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>9</v>
@@ -1896,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>9</v>
@@ -1914,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
@@ -1943,7 +1954,7 @@
     <row r="20" ht="24.95" customHeight="1" spans="1:17">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
@@ -1958,7 +1969,7 @@
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>10</v>
@@ -1967,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
@@ -1976,7 +1987,7 @@
     <row r="21" ht="24.95" customHeight="1" spans="1:17">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1991,7 +2002,7 @@
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>9</v>
@@ -2009,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>9</v>
@@ -2042,7 +2053,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>9</v>
@@ -2059,7 +2070,7 @@
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>9</v>
@@ -2075,7 +2086,7 @@
     <row r="24" ht="24.95" customHeight="1" spans="1:17">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>9</v>
@@ -2090,7 +2101,7 @@
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>10</v>
@@ -2099,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
@@ -2108,7 +2119,7 @@
     <row r="25" ht="24.95" customHeight="1" spans="1:17">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>9</v>
@@ -2130,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
@@ -2141,7 +2152,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>9</v>
@@ -2174,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>9</v>
@@ -2205,7 +2216,7 @@
     <row r="28" ht="24.95" customHeight="1" spans="1:17">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>9</v>
@@ -2234,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>9</v>
@@ -2242,11 +2253,11 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>10</v>
@@ -2269,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>9</v>
@@ -2277,11 +2288,11 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>9</v>
@@ -2308,7 +2319,7 @@
     <row r="31" ht="24.95" customHeight="1" spans="1:17">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>9</v>
@@ -2339,7 +2350,7 @@
     <row r="32" ht="24.95" customHeight="1" spans="1:17">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>9</v>
@@ -2356,7 +2367,7 @@
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L32" s="19" t="s">
         <v>9</v>
@@ -2372,7 +2383,7 @@
     <row r="33" ht="25" customHeight="1" spans="1:17">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>9</v>
@@ -2400,10 +2411,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="15">
         <v>-1</v>
@@ -2417,7 +2428,7 @@
     <row r="36" spans="1:3">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" s="15">
         <v>0</v>
@@ -2431,7 +2442,7 @@
     <row r="38" spans="1:3">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="15">
         <v>-1</v>
@@ -2445,7 +2456,7 @@
     <row r="40" spans="1:3">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="15">
         <v>-1</v>
@@ -2459,7 +2470,7 @@
     <row r="42" spans="1:3">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="15">
         <v>-2</v>
@@ -2473,7 +2484,7 @@
     <row r="44" spans="1:3">
       <c r="A44" s="14"/>
       <c r="B44" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -97,15 +97,18 @@
     <t>显示图书信息有问题</t>
   </si>
   <si>
+    <t>El表达式更改有问题</t>
+  </si>
+  <si>
+    <t>刘鹏</t>
+  </si>
+  <si>
+    <t>使用超链接实现点击图书显示书籍信息,有bug,当第二次点击时,无法正确显示图书信息</t>
+  </si>
+  <si>
     <t>待填</t>
   </si>
   <si>
-    <t>刘鹏</t>
-  </si>
-  <si>
-    <t>使用超链接实现点击图书显示书籍信息,有bug,当第二次点击时,无法正确显示图书信息</t>
-  </si>
-  <si>
     <t>蔡林</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>显示上次用户和图书详情显示有问题</t>
+  </si>
+  <si>
+    <t>EL表达式没有改</t>
   </si>
   <si>
     <t>赖瑞</t>
@@ -264,9 +270,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -299,16 +305,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,24 +350,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,36 +387,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +411,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,22 +427,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +470,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,108 +632,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,18 +644,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -615,36 +651,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,26 +712,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,17 +745,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,6 +769,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -794,15 +809,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -811,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,19 +829,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,112 +850,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" appl